--- a/excel/invoice_#INV00001.xlsx
+++ b/excel/invoice_#INV00001.xlsx
@@ -16,8 +16,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="166" formatCode="yyyy年m月d日"/>
+  </numFmts>
+  <fonts count="5">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -25,16 +29,37 @@
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <name val="MS PGothic"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <sz val="20"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <sz val="18"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <sz val="21"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00E0FFE0"/>
+        <bgColor rgb="00E0FFE0"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -42,12 +67,65 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <bottom style="thin">
+        <color rgb="00E9EEEB"/>
+      </bottom>
+    </border>
+    <border>
+      <bottom style="thick">
+        <color rgb="00666666"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="00E9EEEB"/>
+      </left>
+      <right style="thin">
+        <color rgb="00E9EEEB"/>
+      </right>
+      <top style="thin">
+        <color rgb="00E9EEEB"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="00E9EEEB"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -122,6 +200,36 @@
     </indexedColors>
   </colors>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>5</col>
+      <colOff>0</colOff>
+      <row>2</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -408,223 +516,443 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B2:F31"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="24" customWidth="1" min="2" max="2"/>
+    <col width="24" customWidth="1" min="4" max="4"/>
+    <col width="18" customWidth="1" min="5" max="5"/>
+    <col width="18" customWidth="1" min="6" max="6"/>
+  </cols>
   <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="n"/>
+      <c r="B1" s="1" t="n"/>
+      <c r="C1" s="1" t="n"/>
+      <c r="D1" s="1" t="n"/>
+      <c r="E1" s="1" t="n"/>
+      <c r="F1" s="1" t="n"/>
+    </row>
     <row r="2">
-      <c r="B2" t="inlineStr">
+      <c r="A2" s="1" t="n"/>
+      <c r="B2" s="2" t="inlineStr">
         <is>
           <t>ABC Co.</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="C2" s="1" t="n"/>
+      <c r="D2" s="1" t="n"/>
+      <c r="E2" s="3" t="inlineStr">
         <is>
           <t>INVOICE</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="B3" t="inlineStr">
+      <c r="A3" s="1" t="n"/>
+      <c r="B3" s="1" t="inlineStr">
         <is>
           <t>東京都新宿区西早稲田2-3-18</t>
         </is>
       </c>
+      <c r="C3" s="1" t="n"/>
+      <c r="D3" s="1" t="n"/>
+      <c r="E3" s="1" t="n"/>
+      <c r="F3" s="1" t="n"/>
     </row>
     <row r="4">
-      <c r="B4" t="inlineStr">
+      <c r="A4" s="1" t="n"/>
+      <c r="B4" s="1" t="inlineStr">
         <is>
           <t>abc.co.jp</t>
         </is>
       </c>
+      <c r="C4" s="1" t="n"/>
+      <c r="D4" s="1" t="n"/>
+      <c r="E4" s="1" t="n"/>
+      <c r="F4" s="1" t="n"/>
     </row>
     <row r="5">
-      <c r="B5" t="inlineStr">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="1" t="inlineStr">
         <is>
           <t>03-2222-4444</t>
         </is>
       </c>
+      <c r="C5" s="1" t="n"/>
+      <c r="D5" s="1" t="n"/>
+      <c r="E5" s="1" t="n"/>
+      <c r="F5" s="1" t="n"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="1" t="n"/>
+      <c r="C6" s="1" t="n"/>
+      <c r="D6" s="1" t="n"/>
+      <c r="E6" s="1" t="n"/>
+      <c r="F6" s="1" t="n"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n"/>
+      <c r="B7" s="1" t="n"/>
+      <c r="C7" s="1" t="n"/>
+      <c r="D7" s="1" t="n"/>
+      <c r="E7" s="1" t="n"/>
+      <c r="F7" s="1" t="n"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="1" t="n"/>
+      <c r="C8" s="1" t="n"/>
+      <c r="D8" s="1" t="n"/>
+      <c r="E8" s="1" t="n"/>
+      <c r="F8" s="1" t="n"/>
     </row>
     <row r="9">
-      <c r="B9" t="inlineStr">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="4" t="inlineStr">
         <is>
           <t>BILL TO</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="C9" s="1" t="n"/>
+      <c r="D9" s="4" t="inlineStr">
         <is>
           <t>SHIP TO</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="E9" s="5" t="inlineStr">
         <is>
           <t>Invoice No:</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" s="5" t="inlineStr">
         <is>
           <t>#INV00001</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="B10" t="inlineStr">
+      <c r="A10" s="1" t="n"/>
+      <c r="B10" s="1" t="inlineStr">
         <is>
           <t>&lt;Contact Name&gt;</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="C10" s="1" t="n"/>
+      <c r="D10" s="1" t="inlineStr">
         <is>
           <t>&lt;Name / Dept&gt;</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="E10" s="5" t="inlineStr">
         <is>
           <t>Invoice Date:</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>2020/12/01</t>
-        </is>
+      <c r="F10" s="6" t="n">
+        <v>44222.87039792868</v>
       </c>
     </row>
     <row r="11">
-      <c r="B11" t="inlineStr">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="1" t="inlineStr">
         <is>
           <t>&lt;Client Company Name&gt;</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="C11" s="1" t="n"/>
+      <c r="D11" s="1" t="inlineStr">
         <is>
           <t>&lt;Client Company Name&gt;</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="E11" s="5" t="inlineStr">
         <is>
           <t>Due Date:</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>2021/01/31</t>
-        </is>
+      <c r="F11" s="6" t="n">
+        <v>44227</v>
       </c>
     </row>
     <row r="12">
-      <c r="B12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="1" t="inlineStr">
         <is>
           <t>&lt;Address&gt;</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="C12" s="1" t="n"/>
+      <c r="D12" s="1" t="inlineStr">
         <is>
           <t>&lt;Address&gt;</t>
         </is>
       </c>
+      <c r="E12" s="1" t="n"/>
+      <c r="F12" s="1" t="n"/>
     </row>
     <row r="13">
-      <c r="B13" t="inlineStr">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="1" t="inlineStr">
         <is>
           <t>&lt;Phone, Email&gt;</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="C13" s="1" t="n"/>
+      <c r="D13" s="1" t="inlineStr">
         <is>
           <t>&lt;Phone, Email&gt;</t>
         </is>
       </c>
+      <c r="E13" s="1" t="n"/>
+      <c r="F13" s="1" t="n"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="1" t="n"/>
+      <c r="C14" s="1" t="n"/>
+      <c r="D14" s="1" t="n"/>
+      <c r="E14" s="1" t="n"/>
+      <c r="F14" s="1" t="n"/>
     </row>
     <row r="15">
-      <c r="B15" t="inlineStr">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="7" t="inlineStr">
         <is>
           <t>DESCRIPTION</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="C15" s="7" t="n"/>
+      <c r="D15" s="7" t="inlineStr">
         <is>
           <t>QTY</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="E15" s="7" t="inlineStr">
         <is>
           <t>UNIT PRICE</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="F15" s="7" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
     </row>
+    <row r="16">
+      <c r="A16" s="1" t="n"/>
+      <c r="B16" s="8" t="n"/>
+      <c r="C16" s="8" t="n"/>
+      <c r="D16" s="8" t="n"/>
+      <c r="E16" s="8" t="n"/>
+      <c r="F16" s="9">
+        <f>D16*E16</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="10" t="n"/>
+      <c r="C17" s="10" t="n"/>
+      <c r="D17" s="10" t="n"/>
+      <c r="E17" s="10" t="n"/>
+      <c r="F17" s="11">
+        <f>D17*E17</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="8" t="n"/>
+      <c r="C18" s="8" t="n"/>
+      <c r="D18" s="8" t="n"/>
+      <c r="E18" s="8" t="n"/>
+      <c r="F18" s="9">
+        <f>D18*E18</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="10" t="n"/>
+      <c r="C19" s="10" t="n"/>
+      <c r="D19" s="10" t="n"/>
+      <c r="E19" s="10" t="n"/>
+      <c r="F19" s="11">
+        <f>D19*E19</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="8" t="n"/>
+      <c r="C20" s="8" t="n"/>
+      <c r="D20" s="8" t="n"/>
+      <c r="E20" s="8" t="n"/>
+      <c r="F20" s="9">
+        <f>D20*E20</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="10" t="n"/>
+      <c r="C21" s="10" t="n"/>
+      <c r="D21" s="10" t="n"/>
+      <c r="E21" s="10" t="n"/>
+      <c r="F21" s="11">
+        <f>D21*E21</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="8" t="n"/>
+      <c r="C22" s="8" t="n"/>
+      <c r="D22" s="8" t="n"/>
+      <c r="E22" s="8" t="n"/>
+      <c r="F22" s="9">
+        <f>D22*E22</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="10" t="n"/>
+      <c r="C23" s="10" t="n"/>
+      <c r="D23" s="10" t="n"/>
+      <c r="E23" s="10" t="n"/>
+      <c r="F23" s="11">
+        <f>D23*E23</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="8" t="n"/>
+      <c r="C24" s="8" t="n"/>
+      <c r="D24" s="8" t="n"/>
+      <c r="E24" s="8" t="n"/>
+      <c r="F24" s="9">
+        <f>D24*E24</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n"/>
+      <c r="B25" s="10" t="n"/>
+      <c r="C25" s="10" t="n"/>
+      <c r="D25" s="10" t="n"/>
+      <c r="E25" s="10" t="n"/>
+      <c r="F25" s="11">
+        <f>D25*E25</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="8" t="n"/>
+      <c r="C26" s="8" t="n"/>
+      <c r="D26" s="8" t="n"/>
+      <c r="E26" s="8" t="n"/>
+      <c r="F26" s="9">
+        <f>D26*E26</f>
+        <v/>
+      </c>
+    </row>
     <row r="27">
-      <c r="E27" t="inlineStr">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="1" t="n"/>
+      <c r="C27" s="1" t="n"/>
+      <c r="D27" s="1" t="n"/>
+      <c r="E27" s="5" t="inlineStr">
         <is>
           <t>SUBTOTAL</t>
         </is>
       </c>
-      <c r="F27">
+      <c r="F27" s="12">
         <f>SUM(F16:F26)</f>
         <v/>
       </c>
     </row>
     <row r="28">
-      <c r="B28" t="inlineStr">
+      <c r="A28" s="1" t="n"/>
+      <c r="B28" s="13" t="inlineStr">
         <is>
           <t>Tank you for your business!</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="D28" s="1" t="n"/>
+      <c r="E28" s="5" t="inlineStr">
         <is>
           <t>TAX RATE</t>
         </is>
       </c>
-      <c r="F28" t="n">
+      <c r="F28" s="14" t="n">
         <v>0.1</v>
       </c>
     </row>
     <row r="29">
-      <c r="E29" t="inlineStr">
+      <c r="A29" s="1" t="n"/>
+      <c r="D29" s="1" t="n"/>
+      <c r="E29" s="5" t="inlineStr">
         <is>
           <t>TOTAL TAX</t>
         </is>
       </c>
-      <c r="F29">
+      <c r="F29" s="1">
         <f>F27*F28</f>
         <v/>
       </c>
     </row>
     <row r="30">
-      <c r="E30" t="inlineStr">
+      <c r="A30" s="1" t="n"/>
+      <c r="D30" s="1" t="n"/>
+      <c r="E30" s="5" t="inlineStr">
         <is>
           <t>SHIPPING/HANDLING</t>
         </is>
       </c>
-      <c r="F30" t="n">
+      <c r="F30" s="12" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="31">
-      <c r="E31" t="inlineStr">
+      <c r="A31" s="1" t="n"/>
+      <c r="D31" s="1" t="n"/>
+      <c r="E31" s="15" t="inlineStr">
         <is>
           <t>Balance Due</t>
         </is>
       </c>
-      <c r="F31">
+      <c r="F31" s="16">
         <f>F27+F29+F30</f>
         <v/>
       </c>
     </row>
+    <row r="32">
+      <c r="E32" s="17" t="n"/>
+    </row>
+    <row r="33">
+      <c r="E33" s="17" t="n"/>
+    </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="B28:C32"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>